--- a/mf-intelligence/data/processed/invesco/Invesco_India_Focused_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/invesco/Invesco_India_Focused_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>8.84</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>8.68</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>8.43</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.1600000000000001</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.4100000000000001</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>8.470000000000001</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>9.1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>-0.4799999999999986</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>-0.629999999999999</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8.15</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>8.390000000000001</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>-0.2400000000000002</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.09999999999999964</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Transport Services</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>5.93</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>4.68</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>5.74</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>1.25</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.1899999999999995</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>5.29</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>5.33</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>6.23</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-0.04000000000000004</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>-0.9400000000000004</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.04</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>5.19</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>5.4</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>-0.1500000000000004</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>-0.3600000000000003</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4.62</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>4.77</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>4.42</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>-0.1499999999999995</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.2000000000000002</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.59</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>4.32</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>5.08</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.2699999999999996</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>-0.4900000000000002</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>4.56</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>4.57</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>4.41</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>-0.01000000000000068</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.1499999999999995</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>4.26</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>4.1</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>4.35</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.1600000000000001</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>-0.08999999999999986</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>4.04</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.94</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.1000000000000001</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>4.04</v>
       </c>
     </row>
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>4</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>3.09</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>4.37</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>0.9100000000000001</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>-0.3700000000000001</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>3.48</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>3.46</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.02000000000000002</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>3.48</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Transport Services</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>3.45</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>3.02</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>3.23</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0.4300000000000002</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.2200000000000002</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Healthcare Services</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>3.32</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>3.63</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>4.03</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>-0.3100000000000001</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>-0.7100000000000004</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>3.26</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>3.35</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>3.55</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>-0.0900000000000003</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>3.19</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>3.84</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>-0.6499999999999999</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>3.19</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Agricultural, Commercial &amp; Construction Vehicles</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>2.84</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>2.92</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>-0.08000000000000007</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>2.84</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Paper, Forest &amp; Jute Products</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.84</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>2.42</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>2.99</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>-0.5799999999999998</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>-1.15</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1.09</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>1.49</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>2.35</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>-0.3999999999999999</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>-1.26</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.03</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.02</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>0.03</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>0.009999999999999998</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Agricultural, Commercial &amp; Construction Vehicles</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>3.8</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>-3.8</v>
       </c>
     </row>
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.5</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>-1.5</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>3.36</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>-3.36</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Invesco India Focused Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>Invesco India Focused Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>3.49</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>-3.49</v>
       </c>
     </row>
